--- a/biology/Botanique/Rizipisciculture/Rizipisciculture.xlsx
+++ b/biology/Botanique/Rizipisciculture/Rizipisciculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rizipisciculture consiste en l'élevage de poissons ou de crevettes dans une rizière en même temps que la culture du riz, selon la FAO[1].
-De plus en plus, la FAO cherche également à promouvoir un système riz-poisson-canard, afin d'utiliser les canards pour manger les mauvaises herbes et éviter l'utilisation d'herbicides[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rizipisciculture consiste en l'élevage de poissons ou de crevettes dans une rizière en même temps que la culture du riz, selon la FAO.
+De plus en plus, la FAO cherche également à promouvoir un système riz-poisson-canard, afin d'utiliser les canards pour manger les mauvaises herbes et éviter l'utilisation d'herbicides.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rizipisciculture est une adaptation de l’agroforesterie aux écosystèmes agricoles. Basée sur l’intégration des produits et des déchets agricoles, c'est un exemple de réussite agronomique. Elle permet ainsi une valorisation de l'eau que contient la rizière. De plus, cette association offre de nombreux avantages pour le maintien d’une haute production rizicole tout en permettant l’élevage des poissons, bien qu’elle nécessite une diminution en surface de riz cultivé à cause des aménagements spécifiques indispensables. Cette forme d’élevage assure ainsi à l'agriculteur une diversification de sa production et une source de protéines dans une alimentation basée sur le riz. 
 La pression démographique croissante, la diminution des stocks de poissons à l’état sauvage et l’industrialisation de la production qui a favorisé une monoculture basée sur des variétés de riz à haut rendement associée à l’utilisation de pesticides et d’herbicides (toxiques pour le poisson) ont fait reculer cette association culturale. C’est seulement au cours des années 1980 à 1990 que la rizipisciculture a connu un renouveau, face aux problèmes liés à l’utilisation massive de produits phytosanitaires. Elle permet de plus de favoriser des espèces de poissons autochtones au lieu des espèces élevées industriellement. 
@@ -546,7 +560,9 @@
           <t>Système riz-poisson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Halwart M. et Gupta M.V. (Eds), 2004, Culture of fish in rice field. FAO and the World Fish Center, 83 pages
 Une rizière est d’abord conçue pour la production de riz. Par conséquent, ces conditions ne sont pas optimales pour les poissons. Par exemple, une inondation permanente n’est pas nécessaire à la bonne santé du riz, un sol saturé en eau peut s’avérer suffisant. Les périodes de culture sont également différentes (assèchement des rizières avant récolte). 
@@ -587,7 +603,9 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La mise en place technique de ce système à partir d’une rizière est assez simple. Ainsi il est nécessaire :
 de créer un étang refuge destiné aux poissons en période de plantation, de récolte ou quand l’eau devient rare. La superficie de celui-ci représente 5 à 10 % de la surface totale de la rizière. Sa profondeur varie entre 60 et 80 cm et sa largeur de 1 à 2 m. Il existe différentes dispositions des étangs refuges par rapport à la rizière. Aucun système n’est a priori préférable, il dépend principalement de l’environnement immédiat de la rizière et du choix de l’éleveur ;
@@ -623,14 +641,51 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de systèmes riz-poissons :
 le système naturel, nommé également traditionnel, où les poissons entrent dans la rizière de façon naturelle et non contrôlée via les échanges d’eau (lors de la saison des pluies ou de l’inondation des rizières) ;
 le système cultural (extensif ou intensif) où les poissons sont introduits artificiellement par l’Homme.
 Quel que soit le système d’empoissonnement choisi, il y a toujours un empoissonnement d’origine naturelle. Pour la même raison, on retrouve toujours des poissons en monoculture rizicole, mais en quantité moins importante par manque d’infrastructures adaptées.
-Empoissonnement
-Les exemples proposés sont issus des plantations du delta du Mékong au Viet Nam. L’utilisation d’espèces indigènes est surtout pratiquée en zone côtière où, à cause des pénétrations d’eau salée, un seul cycle de riz est pratiqué durant la saison des pluies. Les variétés de riz utilisées, tolérantes à la salinité, sont donc des variétés traditionnelles à cycle long nécessitant de faibles niveaux d’intrants (engrais et pesticides) et donnent des rendements relativement bas (1,8 à 2,2 t/ha). La principale espèce utilisée dans ce cadre est le Gourami à peau de serpent (Trichogaster pectoralis) : près de 95 % des effectifs. Cette espèce est souvent élevée en association avec d’autres espèces comme le Poisson à tête de serpent (Channa striata), la Perche grimpeuse (Anabas testudineus), ou le Silure grenouille (Clarias batrachus). Celles-ci sont en effet bien adaptées aux conditions particulières de la région : faible pH, salinité de l’eau et faible concentration en oxygène dissous. Après une période de croissance de neuf mois, une production de l’ordre de 70 kg/ha est obtenue, basée sur la productivité naturelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Empoissonnement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exemples proposés sont issus des plantations du delta du Mékong au Viet Nam. L’utilisation d’espèces indigènes est surtout pratiquée en zone côtière où, à cause des pénétrations d’eau salée, un seul cycle de riz est pratiqué durant la saison des pluies. Les variétés de riz utilisées, tolérantes à la salinité, sont donc des variétés traditionnelles à cycle long nécessitant de faibles niveaux d’intrants (engrais et pesticides) et donnent des rendements relativement bas (1,8 à 2,2 t/ha). La principale espèce utilisée dans ce cadre est le Gourami à peau de serpent (Trichogaster pectoralis) : près de 95 % des effectifs. Cette espèce est souvent élevée en association avec d’autres espèces comme le Poisson à tête de serpent (Channa striata), la Perche grimpeuse (Anabas testudineus), ou le Silure grenouille (Clarias batrachus). Celles-ci sont en effet bien adaptées aux conditions particulières de la région : faible pH, salinité de l’eau et faible concentration en oxygène dissous. Après une période de croissance de neuf mois, une production de l’ordre de 70 kg/ha est obtenue, basée sur la productivité naturelle.
 Traditionnellement, les juvéniles sont capturés dans le milieu naturel et placés au début de la saison des pluies dans les rizières aménagées. L’intensification de la production agricole et la surexploitation des ressources aquatiques dans le delta du Mékong ont eu pour conséquence une diminution des stocks naturels d’espèces autochtones. Le recours à des systèmes d’écloseries artificielles s’est donc développé. Les principales espèces utilisées sont des poissons de la famille des cyprinidés, le Barbeau argenté (Puntius gonionotus) et la carpe commune (Cyprinus carpio). 
 En système dit cultural, la population de poissons est (au moins partiellement) imputable à l’homme. Se pose alors la difficile question du choix des espèces et des densités de mise en charge. Différentes études ont eu lieu dans le delta du Mékong. Duong Nhut Long a ainsi réalisé une étude sur deux systèmes de polycultures en rizières aménagées : d’un côté, une association de trois espèces de poissons (Barbeau argentée [50 %], Tilapia [30 %] et Carpe commune [20 %]), de l’autre, une association de six espèces de poissons (Barbeau argentée [40 %], Tilapia [20 %], Carpe commune [15 %], Carpe argentée [10 %], Gourami à peau de serpent [10 %] et Gourami embrasseur [5 %]), chacune à des concentrations différentes (1, 2, 3 ou 4 poissons au mètre carré). Il apparaît que le rendement piscicole le plus important (823,4 kg/ha), le revenu net d’exploitation le plus élevé (10 935 000₫/ha) et le meilleur ratio bénéfices/coûts (2,08) sont obtenus pour une densité de stockage de deux poissons/m² en polyculture associant trois espèces. Ces résultats ont été obtenus en ajoutant une alimentation industrielle à la ration « naturelle ». 
 Une autre étude montre que le Tilapia et la carpe commune occupe la même niche trophique. Il est donc recommandé de ne pas utiliser une association de ces deux espèces. Le Barbeau argenté y est recommandé pour contrôler les mauvaises herbes, bien que la base de son alimentation soit les pousses de riz elles-mêmes ainsi que les grains accessibles, ce qui peut être contrôlé par une densité modérée dans les cultures. Tilapia et Barbeau argenté semblent par ailleurs avoir une action synergique sur leurs croissances respectives.
@@ -640,8 +695,43 @@
 Les marchés jouent aussi un rôle dans le choix de la taille des juvéniles puisqu’une espèce comme la Carpe commune ne sera commercialisable que lorsqu’elle aura atteint une taille suffisamment importante, plus facilement atteinte à partir de gros juvéniles. Ainsi, dans une étude de Rothuis et al., le meilleur rendement en rizipisciculture a été obtenu à partir de Barbeaux argentés de petite taille. À la fin de l’étude, ces derniers n’avaient toutefois pas encore atteint leur taille de commercialisation : ceci implique pour l’éleveur des frais supplémentaires en attendant de pouvoir les vendre. Enfin, les juvéniles ne sont pas toujours disponibles au moment voulu. Le choix se portera alors sur les espèces disponibles.
 Beaucoup d’exploitants collectent eux-mêmes les juvéniles qu’ils élèvent ensuite dans leurs propres nurseries (souvent de petits étangs) avant d’empoissonner leurs rizières. Pour certaines espèces faciles à reproduire, comme le Tilapia, ils peuvent même choisir de conserver les plus beaux spécimens.
 Après avoir choisi les espèces à implanter et la taille des alevins, il reste à déterminer la densité de stockage des poissons afin de maximiser les interactions synergiques poissons-poissons et poissons-environnement tout en minimisant les différents antagonismes. La disponibilité en aliment est la première limite à l’augmentation de la densité en poissons. Sauf utilisation d’une alimentation ménagère ou industrielle supplémentaire (systèmes semi-intensifs et intensifs), l’augmentation de la densité diminue de facto la quantité de nourriture disponible par poisson. D’autres facteurs jouent également un rôle sur les potentialités de stockage : qualité et renouvellement de l’eau, oxygénation, pH, etc. En système extensif ou semi-intensif (alimentation ménagère), dans les faits comme dans les recommandations, les chiffres varient de 0,3 à 2 poissons/m².
-Calendrier
-La fertilisation préalable du sol de la rizière permet d’augmenter aussi bien la production de riz que de poisson. Ainsi, une semaine avant de planter le riz, fumiers ou compost sont répandus au fond de la rizière. Hilbrands conseille d’ailleurs de répandre 200 à 500 kg/ha de fougères d’eau fraîche du genre Azolla, facilement cultivables ou récoltables dans la nature. De plus, un ajout de 300 kg/ha de fumier frais chaque semaine, via une compostière, augmente considérablement la quantité d’aliments naturels dans l’eau (via la chaîne trophique citée précédemment). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fertilisation préalable du sol de la rizière permet d’augmenter aussi bien la production de riz que de poisson. Ainsi, une semaine avant de planter le riz, fumiers ou compost sont répandus au fond de la rizière. Hilbrands conseille d’ailleurs de répandre 200 à 500 kg/ha de fougères d’eau fraîche du genre Azolla, facilement cultivables ou récoltables dans la nature. De plus, un ajout de 300 kg/ha de fumier frais chaque semaine, via une compostière, augmente considérablement la quantité d’aliments naturels dans l’eau (via la chaîne trophique citée précédemment). 
 Le riz est ensuite planté lorsque la rizière est inondée, que ce soit par irrigation ou par les pluies naturelles. L’implantation des poissons dans les rizières s’effectue environ trois semaines plus tard, le temps nécessaire pour permettre un établissement solide des plants de riz.
 L’entretien de la rizière est primordial, chaque jour, afin de contrôler attentivement les niveaux d’eau (il ne faut pas de variations brusques). Le riz a besoin de quantités importantes d’eau pour sa croissance (soit environ 12 000 m3/ha), quantités variant selon les phases de production et la taille des plants. On estime que le niveau d’eau doit se trouver à environ 1/5 de la hauteur de la tige du riz, ce qui permet une profondeur généralement supérieure à 15 cm, parfaitement adaptée à l’élevage des poissons.
 Avec moins de 0,3 individu/m², il n’est pas besoin d’apporter quoi que ce soit aux poissons qui trouveront leur alimentation seuls. 
@@ -649,46 +739,118 @@
 Pour certaines opérations spécifiques, comme la fertilisation du riz pendant la phase de transformation en panicule (environ 28 à 30 jours avant l’épiaison), il est nécessaire de ne laisser qu’une fine couche d’eau stagnante dans la rizière. Cette quantité d’eau moindre associée à l’utilisation d’engrais entraîne un risque accru pour les poissons. L’eau de la rizière est donc drainée lentement afin de forcer les alevins à retourner à l’étang refuge. On peut alors appliquer efficacement l’engrais sur la parcelle, puis remettre le champ sous eau deux à trois jours plus tard.
 Pour beaucoup d'agriculteurs, l'utilisation d'engrais chimiques dans leurs systèmes riz-poisson ne pose pas de problèmes. Il a toutefois été signalé que dans certains cas des poissons sont morts à la suite de l'application de tels produits alors qu'ils étaient alimentés avec des granulés et qu'ils ont pu de ce fait ingérer également des granules d'engrais. Par contre, l’utilisation de pesticides est fortement déconseillée.
 La période de culture du riz s’étend sur 3 à 5 mois. Selon la taille des poissons lors de la récolte du riz, ils seront soit vendus soit élevés quelque temps supplémentaire afin de leur permettre d’atteindre leur taille de commercialisation (variable selon les espèces et les marchés). En effet, l’élevage des poissons se fait souvent sur deux ou trois récoltes de riz successives. De plus, les poissons peuvent aussi être gardés par l’éleveur pour les vendre à un meilleur prix en période creuse. Mais la conservation des poissons, sans culture de riz associée, nécessite l’emploi d’une alimentation supplémentaire. Quoi qu’il en soit, la récolte est aisée, puisqu’il suffit de drainer la rizière afin de forcer les poissons à se regrouper dans les étangs refuges. Puis, à l’aide d’épuisettes, il devient très facile de les pêcher.
-Lutte contre les prédateurs et les nuisibles
-Les poissons ont un certain nombre de prédateurs tels que oiseaux, mammifères, serpents, amphibiens… qui abondent dans les rizières. De plus, les alevins les plus jeunes sont présents dans les rizières au moment où la hauteur d’eau est la plus faible, puisque les plants de riz sont très jeunes, et deviennent de fait des cibles de choix pour un grand nombre de prédateurs. Il apparaît donc indispensable de mettre en œuvre une lutte efficace contre les prédateurs, par des pièges, par une hauteur d’eau accrue, ou par un élevage des jeunes alevins dans une « nurserie » jusqu’à une taille suffisante pour leur permettre d’échapper à la plupart de leurs prédateurs. Il existe différents types de nurseries : un petit étang d’alevinage dans ou à proximité d’un champ, un petit étang rizipiscicole ayant un bon approvisionnement en eau ou une cage d’alevinage flottante dans un étang de plus grande taille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lutte contre les prédateurs et les nuisibles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poissons ont un certain nombre de prédateurs tels que oiseaux, mammifères, serpents, amphibiens… qui abondent dans les rizières. De plus, les alevins les plus jeunes sont présents dans les rizières au moment où la hauteur d’eau est la plus faible, puisque les plants de riz sont très jeunes, et deviennent de fait des cibles de choix pour un grand nombre de prédateurs. Il apparaît donc indispensable de mettre en œuvre une lutte efficace contre les prédateurs, par des pièges, par une hauteur d’eau accrue, ou par un élevage des jeunes alevins dans une « nurserie » jusqu’à une taille suffisante pour leur permettre d’échapper à la plupart de leurs prédateurs. Il existe différents types de nurseries : un petit étang d’alevinage dans ou à proximité d’un champ, un petit étang rizipiscicole ayant un bon approvisionnement en eau ou une cage d’alevinage flottante dans un étang de plus grande taille.
 La lutte contre les nuisibles du riz, principalement réalisée grâce aux pesticides ou aux herbicides en monoculture, doit être plus réfléchie dans ce type de culture associée. Réduire l’utilisation des produits phytosanitaires est un facteur important. Tout d’abord, ils représentent un danger pour les poissons (mortalité accrue) mais aussi pour l’Homme (manipulation des produits, inhalation, ingestion, etc.) et pour l’environnement. De plus, les pesticides éliminent aussi bien les déprédateurs que leurs ennemis naturels, laissant la récolte vulnérable à une invasion incontrôlable d’organismes nuisibles, ce qui nécessite toujours plus de traitements chimiques préventifs (cercle vicieux).
 Une immersion rapide (pendant quelques heures) des plants de riz ou l’utilisation de méthodes mécaniques pour faire tomber dans l’eau les insectes nuisibles présents sur les feuilles (comme une simple corde tirée à travers champs), permettant par la même de nourrir les poissons, sont des pratiques hautement préférables aux techniques chimiques habituelles.
 Il existe en rizières un grand nombre d'autres espèces tant d'élevage que sauvages. Parmi celles-ci se trouvent des poissons qui se nourrissent de larves et d'autres qui se nourrissent de mollusques... Ils ont une grande importance dans la lutte contre les maladies de l'Homme transmises par des vecteurs, comme le paludisme et la bilharziose. Ils ont également un rôle majeur dans la lutte contre les organismes problématiques en riziculture.
-Beaucoup de mauvaises herbes que l’on retrouve dans les rizières s’avèrent être de bons aliments pour la Carpe herbivore[3] (Ctenopharyngodon idella). L’utilisation de ces alevins à raison de deux à trois individus/m² pour les plus petits (d'une longueur de 2 à 3 cm) et/ou deux à trois individus/10 m2 pour les plus gros (d'une longueur de 8 à 10 cm), un mois après le repiquage, permet une lutte efficace contre les mauvaises herbes et limite le recours à d’autres techniques. Mais par la suite, au cours de leur croissance, il peut être nécessaire de leur donner quotidiennement une alimentation complémentaire afin d’éviter qu’ils ne détériorent les jeunes plants de riz (distribution d’herbacées, de préférence dans l’étang refuge, et non dans les rizières). Une fois ces derniers bien installés, les poissons herbivores auront à nouveau une action bénéfique, mangeant les feuilles les plus externes du riz, les plus vieilles et donc les plus susceptibles d’être infestés par des organismes pathogènes. Ceci rend les plants de riz plus sains. De plus, ils continueront à se nourrir des jeunes plants de mauvaises herbes, permettant un contrôle biologique de ces organismes. La turbidité et l'eau profonde augmentent cet effet.
+Beaucoup de mauvaises herbes que l’on retrouve dans les rizières s’avèrent être de bons aliments pour la Carpe herbivore (Ctenopharyngodon idella). L’utilisation de ces alevins à raison de deux à trois individus/m² pour les plus petits (d'une longueur de 2 à 3 cm) et/ou deux à trois individus/10 m2 pour les plus gros (d'une longueur de 8 à 10 cm), un mois après le repiquage, permet une lutte efficace contre les mauvaises herbes et limite le recours à d’autres techniques. Mais par la suite, au cours de leur croissance, il peut être nécessaire de leur donner quotidiennement une alimentation complémentaire afin d’éviter qu’ils ne détériorent les jeunes plants de riz (distribution d’herbacées, de préférence dans l’étang refuge, et non dans les rizières). Une fois ces derniers bien installés, les poissons herbivores auront à nouveau une action bénéfique, mangeant les feuilles les plus externes du riz, les plus vieilles et donc les plus susceptibles d’être infestés par des organismes pathogènes. Ceci rend les plants de riz plus sains. De plus, ils continueront à se nourrir des jeunes plants de mauvaises herbes, permettant un contrôle biologique de ces organismes. La turbidité et l'eau profonde augmentent cet effet.
 Les poissons mangent de nombreux insectes nuisibles : mouches mineuses du haricot (Liriomyza sp.) lorsque les larves se déplacent, Nymphula depunctalis (larves flottantes), Cnaphalocrocis medinalis qui se déplace dans l’eau entre les plants de riz… La Carpe commune semble être très efficace contre les ampullaires brunes, consommant ce mollusque à peine éclos. Les sauterelles sont consommées lorsqu’elles tombent à l’eau. Enfin les poissons mangent aussi bien les champignons pathogènes comme le chancre de la tige (sous sa forme sclérote qui flotte sur l’eau ou se trouve sur les fonds des rizières), que les feuilles contaminées, améliorant les conditions de santé du riz. 
 Enfin, il existe également une action indirecte des poissons dans la lutte contre les déprédateurs. L’exemple de Marasmia ruralis l’illustre parfaitement. Les poissons ne consomment pas directement cet insecte mais en dérangeant les mites sur les pieds de riz, ils favorisent la capture par leurs prédateurs, notamment les oiseaux.
-Productions semi-intensives et intensives
-Ce sont des techniques qui permettent d’intensifier les rendements piscicoles. Elles se basent sur une fertilisation optimale des terrains et l’adjonction d’une alimentation artificielle, permettant une production double voire triple. Les infrastructures doivent être naturellement bien maîtrisées, notamment avec des digues suffisamment hautes, et la gestion de l’eau doit être parfaite. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Productions semi-intensives et intensives</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des techniques qui permettent d’intensifier les rendements piscicoles. Elles se basent sur une fertilisation optimale des terrains et l’adjonction d’une alimentation artificielle, permettant une production double voire triple. Les infrastructures doivent être naturellement bien maîtrisées, notamment avec des digues suffisamment hautes, et la gestion de l’eau doit être parfaite. 
 L’emploi d’une alimentation industrielle ou ménagère, distribuée chaque jour et adaptée au format des poissons en croissance, permet une plus grande concentration de ces derniers dans la parcelle et donc de meilleurs rendements. Long recommande par exemple l’emploi d’une alimentation à 25 % de protéines, industrielle ou ménagère mais de préférence sous forme de boulettes face à une association « classique » de poissons. Elle permet un rendement significativement supérieur (p &lt; 0,05) à une alimentation moins riche en protéines (18 % dans l’étude). La ration ménagère, moins coûteuse mais souvent moins bien balancée (et parfois carencée) que la ration industrielle, associe généralement pour 7/10 d’éléments énergétiques (son de riz, de maïs ou de blé, farines, pommes de terre, etc.) et pour 3/10 d’éléments protéiques (farine de poisson, tourteaux d’arachide, de soja ou de coton). Les farines de légumineuses (haricot, pois, soja, etc.) sont à la fois riches en énergie et en protéines, donc toutes indiquées pour entrer dans la composition des aliments pour poisson. De même, les restes de cuisine peuvent fournir une alimentation bon marché mais néanmoins de qualité. Toutefois, les agriculteurs les plus modestes sont rarement bien informés pour réaliser leurs rations ménagères qui sont souvent mal équilibrées, utilisant les ingrédients selon leurs habitudes ou leur disponibilité.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rizipisciculture</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizipisciculture</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Conclusions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant longtemps, la production piscicole en milieu céréalier ne fut considérée que comme une production complémentaire, annexe et peu valorisable. Les nouvelles études montrent aujourd’hui les véritables opportunités d’une production rizipiscicole maîtrisée, faisant de la pisciculture un catalyseur vert de la production rizicole. La synergie poisson - riz transparaît ainsi face aux contraintes rencontrées en monoculture : lutte contre les parasites (insectes, mollusques), désherbage biologique, recyclage de l’azote organique ou du phosphore via les fèces des poissons. De plus, elle s’associe à une valorisation des déchets verts via la compostière, à une limitation dans l’emploi de produits phytosanitaires et d’engrais, à un accroissement des rendements rizicoles, à une source d’aliments d’une haute valeur protéique obtenus à bas coût (d’un point de vue à la fois économique et énergétique). 
 Pour autant, ce système présente quelques inconvénients sur lesquels nous allons maintenant nous pencher. Tout d’abord, il nécessite une main d’œuvre abondante, besoin imputable à une activité quotidienne augmentée, mais aussi aux importants travaux de terrassement préalables ainsi qu’à l’entretien régulier des infrastructures. De plus, cette activité n’est pas sans risque, comparée à la monoculture rizicole, car elle est particulièrement exposée aux inondations, aux sécheresses, aux défoncements de terrain, aux intoxications, aux maladies, ou aux prédateurs comme le serpent qui peut être responsable d’un effondrement des rendements piscicoles, etc.
